--- a/biology/Botanique/Macleaya_microcarpa/Macleaya_microcarpa.xlsx
+++ b/biology/Botanique/Macleaya_microcarpa/Macleaya_microcarpa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macleaya microcarpa est une espèce de la famille des Papavéracées originaire de Chine. Le nom du genre commémore l'entomologiste écossais Alexander Macleay.
 Nom chinois : 小果博落回
@@ -512,7 +524,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Macleaya microcarpa est une plante vivace, rhizomateuse, caduque, hermaphrodite, lactifère au latex jaune.
 La base de la plante est légèrement lignifiée.
@@ -521,7 +535,7 @@
 La fleur a deux sépales formant un calice coloré. Elle est apétale et possède de nombreuses étamines mais moins que l'espèce Macleaya cordata : au maximum 12. Ces étamines ont un filament plus court que les anthères.
 La capsule est orbiculaire.
 Les graines sont ovoïdes, mais uniques par locule, attachées à la base.
-Deux décomptes de chromosomes, l'un en 1989, l'autre en 1994, ont donné, l'un 5 paires et le deuxième 10 paires[2].
+Deux décomptes de chromosomes, l'un en 1989, l'autre en 1994, ont donné, l'un 5 paires et le deuxième 10 paires.
 </t>
         </is>
       </c>
@@ -550,7 +564,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est une plante endémique de Chine : Gansu, Henan, Hubei, Jiangsu, Jiangxi, Shaanxi, Shanxi et Sichuan.
 Son usage ornemental l'a répandue dans l'ensemble des pays à climat tempérés.
@@ -582,12 +598,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce connaît un usage croissant en France comme plante ornementale. Deux variétés horticoles commencent à être largement diffusées :
 Macleaya microcarpa 'Kelway's Coral Plume' - floraison rose corail
 Macleaya microcarpa 'Spetchley Ruby' - boutons pourpres et floraison abricot
-Elle peut être victime d'une infection fongique par Erysiphe macleayae[3]
+Elle peut être victime d'une infection fongique par Erysiphe macleayae
 </t>
         </is>
       </c>
@@ -616,10 +634,12 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carl Maximowicz décrit, en 1889, une première fois cette espèce sous le nom de Boccaria microcarpa Maxim[4].
-Friedrich Fedde la replace dans le genre Macleaya en 1905[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carl Maximowicz décrit, en 1889, une première fois cette espèce sous le nom de Boccaria microcarpa Maxim.
+Friedrich Fedde la replace dans le genre Macleaya en 1905.
 Comme le genre, elle est placée dans la sous-famille des Papaveroideae, tribu des Chelidonieae.
 </t>
         </is>
